--- a/Burndown_ chart.xlsx
+++ b/Burndown_ chart.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Y Axis</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>sum of tasks estimates (days)</t>
+  </si>
+  <si>
+    <t>X Axis</t>
   </si>
 </sst>
 </file>
@@ -349,11 +352,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2133648256"/>
-        <c:axId val="-2133645040"/>
+        <c:axId val="-2063548128"/>
+        <c:axId val="-2063395808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2133648256"/>
+        <c:axId val="-2063548128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,7 +399,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133645040"/>
+        <c:crossAx val="-2063395808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -404,7 +407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133645040"/>
+        <c:axId val="-2063395808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,7 +458,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133648256"/>
+        <c:crossAx val="-2063548128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1380,7 +1383,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
